--- a/cypress/fixtures/AutomationTestData.xlsx
+++ b/cypress/fixtures/AutomationTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamat\Documents\CYPRESS_FRAMEWORK\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194DFBC1-E648-4908-856C-4040386E3272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605524B8-8B34-4F1F-9C7C-33B2CB9DB7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EE51689A-198B-443F-9272-612A24E3BA4F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>To_be_Tested</t>
   </si>
@@ -49,6 +49,48 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>loginflag</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Login-InValid Credentials</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>tester0111212@g.com</t>
+  </si>
+  <si>
+    <t>Sign_upName</t>
+  </si>
+  <si>
+    <t>Already Registered User</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>contactus testing message</t>
   </si>
 </sst>
 </file>
@@ -84,9 +126,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D5D3D8-AE51-494D-A14D-EF20249B9BBF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,9 +453,11 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,22 +470,101 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>